--- a/phaseTwo/Salida.xlsx
+++ b/phaseTwo/Salida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,20 +436,15 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>ITERACIONES</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
           <t>x</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>y</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>z</t>
         </is>
@@ -457,7 +452,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -465,50 +460,71 @@
       <c r="C2" t="n">
         <v>0</v>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>-84000</v>
       </c>
       <c r="B3" t="n">
-        <v>5250</v>
+        <v>54.6875</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>4115835.9375</v>
       </c>
       <c r="B4" t="n">
-        <v>-777000</v>
+        <v>-2577.1484375</v>
       </c>
       <c r="C4" t="n">
-        <v>492.1875</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
+        <v>27.34375</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>-201584010.7421875</v>
       </c>
       <c r="B5" t="n">
-        <v>115726570.3125</v>
+        <v>126364.8681640625</v>
       </c>
       <c r="C5" t="n">
-        <v>-72536.1328125</v>
-      </c>
-      <c r="D5" t="n">
-        <v>738.28125</v>
+        <v>-1261.23046875</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>9873195505.981445</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-6188931.076049805</v>
+      </c>
+      <c r="C6" t="n">
+        <v>61921.20361328125</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>-483569965455.4291</v>
+      </c>
+      <c r="B7" t="n">
+        <v>303122044.8703766</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-3032544.334411621</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>23684319037495.56</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-14846329631.22058</v>
+      </c>
+      <c r="C8" t="n">
+        <v>148528478.1007767</v>
       </c>
     </row>
   </sheetData>

--- a/phaseTwo/Salida.xlsx
+++ b/phaseTwo/Salida.xlsx
@@ -452,7 +452,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -463,10 +463,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-84000</v>
+        <v>1750</v>
       </c>
       <c r="B3" t="n">
-        <v>54.6875</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -474,57 +474,57 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4115835.9375</v>
+        <v>-84000</v>
       </c>
       <c r="B4" t="n">
-        <v>-2577.1484375</v>
+        <v>54.6875</v>
       </c>
       <c r="C4" t="n">
-        <v>27.34375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-201584010.7421875</v>
+        <v>4115835.9375</v>
       </c>
       <c r="B5" t="n">
-        <v>126364.8681640625</v>
+        <v>-2577.1484375</v>
       </c>
       <c r="C5" t="n">
-        <v>-1261.23046875</v>
+        <v>27.34375</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>9873195505.981445</v>
+        <v>-201584010.7421875</v>
       </c>
       <c r="B6" t="n">
-        <v>-6188931.076049805</v>
+        <v>126364.8681640625</v>
       </c>
       <c r="C6" t="n">
-        <v>61921.20361328125</v>
+        <v>-1261.23046875</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-483569965455.4291</v>
+        <v>9873195505.981445</v>
       </c>
       <c r="B7" t="n">
-        <v>303122044.8703766</v>
+        <v>-6188931.076049805</v>
       </c>
       <c r="C7" t="n">
-        <v>-3032544.334411621</v>
+        <v>61921.20361328125</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>23684319037495.56</v>
+        <v>-483569965455.4291</v>
       </c>
       <c r="B8" t="n">
-        <v>-14846329631.22058</v>
+        <v>303122044.8703766</v>
       </c>
       <c r="C8" t="n">
-        <v>148528478.1007767</v>
+        <v>-3032544.334411621</v>
       </c>
     </row>
   </sheetData>

--- a/phaseTwo/Salida.xlsx
+++ b/phaseTwo/Salida.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Euler Method" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="RK4 Method" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,17 +436,22 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>TIEMPO</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>CORRIENTE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>z</t>
+          <t>VEL. ANGULAR</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>POS. ANGULAR</t>
         </is>
       </c>
     </row>
@@ -460,71 +465,92 @@
       <c r="C2" t="n">
         <v>0</v>
       </c>
+      <c r="D2" t="n">
+        <v>-12691148.63144089</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1750</v>
+        <v>0.5</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-8419750.447591145</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>5278.874715169271</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-12691148.63144089</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-84000</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>54.6875</v>
+        <v>-2023728097861.352</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1268558088.261331</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-12691148.63144089</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4115835.9375</v>
+        <v>1.5</v>
       </c>
       <c r="B5" t="n">
-        <v>-2577.1484375</v>
+        <v>-4.864109392414535e+17</v>
       </c>
       <c r="C5" t="n">
-        <v>27.34375</v>
+        <v>304902882418333.7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-12691148.63144089</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-201584010.7421875</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>126364.8681640625</v>
+        <v>-1.169107658582418e+23</v>
       </c>
       <c r="C6" t="n">
-        <v>-1261.23046875</v>
+        <v>7.328459666532646e+19</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-12691148.63144089</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>9873195505.981445</v>
+        <v>2.5</v>
       </c>
       <c r="B7" t="n">
-        <v>-6188931.076049805</v>
+        <v>-2.809995843201177e+28</v>
       </c>
       <c r="C7" t="n">
-        <v>61921.20361328125</v>
+        <v>1.761423855951285e+25</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-12691148.63144089</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-483569965455.4291</v>
+        <v>3</v>
       </c>
       <c r="B8" t="n">
-        <v>303122044.8703766</v>
+        <v>-6.753934576377807e+33</v>
       </c>
       <c r="C8" t="n">
-        <v>-3032544.334411621</v>
+        <v>4.233650919146358e+30</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-12691148.63144089</v>
       </c>
     </row>
   </sheetData>
